--- a/files/accounts.xlsx
+++ b/files/accounts.xlsx
@@ -31,7 +31,7 @@
     <t>beeb...beeb</t>
   </si>
   <si>
-    <t>login:password@ip:port</t>
+    <t>http://login:password@ip:port</t>
   </si>
   <si>
     <t>0x123…456</t>
